--- a/US/data/BOC/HOUS/SHIP/old/shipment.xlsx
+++ b/US/data/BOC/HOUS/SHIP/old/shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202110 - March 8, 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202111 - April 7, 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F1A07-D657-4183-9301-F9E5DA3BD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FE902-8B79-43D9-9EA3-4EEFF219D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4620" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,20 +178,6 @@
   </si>
   <si>
     <r>
-      <t>November</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>December</t>
     </r>
     <r>
@@ -205,6 +191,9 @@
     </r>
   </si>
   <si>
+    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
+  </si>
+  <si>
     <r>
       <t>January</t>
     </r>
@@ -215,11 +204,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>February</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>p</t>
     </r>
-  </si>
-  <si>
-    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1146,10 +1146,10 @@
         <v>9.1</v>
       </c>
       <c r="C5" s="15">
-        <v>97.435556967765407</v>
+        <v>96.101744134585999</v>
       </c>
       <c r="D5" s="14">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
@@ -1176,10 +1176,17 @@
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C6" s="15">
+        <v>96.5748884160231</v>
+      </c>
+      <c r="D6" s="14">
+        <v>115</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="18" t="s">
         <v>15</v>
@@ -1442,7 +1449,7 @@
       <c r="C15" s="15"/>
       <c r="E15" s="12"/>
       <c r="F15" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G15" s="15">
         <v>9.1</v>
@@ -1470,16 +1477,16 @@
       <c r="C16" s="15"/>
       <c r="E16" s="12"/>
       <c r="F16" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>88.644701218781591</v>
+        <v>87.893216723899798</v>
       </c>
       <c r="I16" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="18"/>
@@ -1495,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="38">
-        <v>9.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
